--- a/tablas/C04 Tabla.xlsx
+++ b/tablas/C04 Tabla.xlsx
@@ -9,13 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="datos" sheetId="1" r:id="rId1"/>
     <sheet name="maraton" sheetId="2" r:id="rId2"/>
     <sheet name="cancer" sheetId="3" r:id="rId3"/>
-    <sheet name="calificaciones" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>X1</t>
   </si>
@@ -85,60 +84,6 @@
   <si>
     <t>concavity_mean</t>
   </si>
-  <si>
-    <t>Matemáticas</t>
-  </si>
-  <si>
-    <t>Física</t>
-  </si>
-  <si>
-    <t>Alumno 1</t>
-  </si>
-  <si>
-    <t>Alumno 2</t>
-  </si>
-  <si>
-    <t>Alumno 4</t>
-  </si>
-  <si>
-    <t>Alumno 9</t>
-  </si>
-  <si>
-    <t>Alumno 6</t>
-  </si>
-  <si>
-    <t>Alumno 3</t>
-  </si>
-  <si>
-    <t>Alumno 5</t>
-  </si>
-  <si>
-    <t>Alumno 7</t>
-  </si>
-  <si>
-    <t>Alumno 8</t>
-  </si>
-  <si>
-    <t>Alumno 10</t>
-  </si>
-  <si>
-    <t>Alumno 11</t>
-  </si>
-  <si>
-    <t>Alumno 12</t>
-  </si>
-  <si>
-    <t>Alumno 13</t>
-  </si>
-  <si>
-    <t>Alumno 14</t>
-  </si>
-  <si>
-    <t>Alumno 15</t>
-  </si>
-  <si>
-    <t>Español</t>
-  </si>
 </sst>
 </file>
 
@@ -173,11 +118,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,7 +402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -15192,7 +15134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H570"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -30019,241 +29961,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2">
-        <v>2.7</v>
-      </c>
-      <c r="C2">
-        <v>2.7</v>
-      </c>
-      <c r="D2">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3">
-        <v>0.9</v>
-      </c>
-      <c r="C3">
-        <v>1.5</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4">
-        <v>4.5</v>
-      </c>
-      <c r="C4">
-        <v>3.8</v>
-      </c>
-      <c r="D4">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5">
-        <v>2.7</v>
-      </c>
-      <c r="C5">
-        <v>2.5</v>
-      </c>
-      <c r="D5">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6">
-        <v>0.9</v>
-      </c>
-      <c r="C6">
-        <v>1.8</v>
-      </c>
-      <c r="D6">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <v>1.8</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0.9</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9">
-        <v>1.8</v>
-      </c>
-      <c r="C9">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D9">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10">
-        <v>2.7</v>
-      </c>
-      <c r="C10">
-        <v>2.5</v>
-      </c>
-      <c r="D10">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11">
-        <v>2.7</v>
-      </c>
-      <c r="C11">
-        <v>2.5</v>
-      </c>
-      <c r="D11">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12">
-        <v>3.6</v>
-      </c>
-      <c r="C12">
-        <v>3.5</v>
-      </c>
-      <c r="D12">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13">
-        <v>2.7</v>
-      </c>
-      <c r="C13">
-        <v>2.5</v>
-      </c>
-      <c r="D13">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0.9</v>
-      </c>
-      <c r="D14">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15">
-        <v>3.6</v>
-      </c>
-      <c r="C15">
-        <v>4.2</v>
-      </c>
-      <c r="D15">
-        <v>10.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16">
-        <v>2.7</v>
-      </c>
-      <c r="C16">
-        <v>2.5</v>
-      </c>
-      <c r="D16">
-        <v>5.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>